--- a/ProgramaInventario1/ProgramaInventario1/bin/Debug/net6.0-windows/productos.xlsx
+++ b/ProgramaInventario1/ProgramaInventario1/bin/Debug/net6.0-windows/productos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05432ABE-2BA4-4A6F-9E55-DAE55FFC0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA9D51F7-1A91-444C-8184-A880F8EFFAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{4882BCFA-66CA-4C8D-9CFD-046697367A43}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15510" windowHeight="9105" xr2:uid="{029D0774-A8F9-41C5-8E18-179393FEDCBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5689DF-A92B-4A75-8139-877BB7CF0612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23ADE94A-0461-4159-82CF-CCB80AFCE8AF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
